--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H2">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N2">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O2">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P2">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q2">
-        <v>1417.094345641026</v>
+        <v>2573.102783581003</v>
       </c>
       <c r="R2">
-        <v>12753.84911076923</v>
+        <v>23157.92505222903</v>
       </c>
       <c r="S2">
-        <v>0.08680737015942051</v>
+        <v>0.09944086941862781</v>
       </c>
       <c r="T2">
-        <v>0.0868073701594205</v>
+        <v>0.0994408694186278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H3">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
         <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P3">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q3">
-        <v>9.281304398456889</v>
+        <v>9.031992300218668</v>
       </c>
       <c r="R3">
-        <v>83.53173958611201</v>
+        <v>81.28793070196801</v>
       </c>
       <c r="S3">
-        <v>0.000568547626315347</v>
+        <v>0.0003490529692972997</v>
       </c>
       <c r="T3">
-        <v>0.0005685476263153468</v>
+        <v>0.0003490529692972997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H4">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N4">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q4">
-        <v>50.83434326025689</v>
+        <v>71.13196697247866</v>
       </c>
       <c r="R4">
-        <v>457.5090893423121</v>
+        <v>640.1877027523079</v>
       </c>
       <c r="S4">
-        <v>0.003113974497024774</v>
+        <v>0.002748986431609338</v>
       </c>
       <c r="T4">
-        <v>0.003113974497024773</v>
+        <v>0.002748986431609338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H5">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N5">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q5">
-        <v>431.6708848628143</v>
+        <v>326.1807514703853</v>
       </c>
       <c r="R5">
-        <v>3885.037963765329</v>
+        <v>2935.626763233467</v>
       </c>
       <c r="S5">
-        <v>0.02644299189012731</v>
+        <v>0.01260567503203098</v>
       </c>
       <c r="T5">
-        <v>0.0264429918901273</v>
+        <v>0.01260567503203098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N6">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O6">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P6">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q6">
-        <v>5182.530138110654</v>
+        <v>9669.981952824075</v>
       </c>
       <c r="R6">
-        <v>46642.77124299589</v>
+        <v>87029.83757541668</v>
       </c>
       <c r="S6">
-        <v>0.3174677913613573</v>
+        <v>0.3737089007043137</v>
       </c>
       <c r="T6">
-        <v>0.3174677913613572</v>
+        <v>0.3737089007043137</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
         <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P7">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q7">
-        <v>33.94314564442311</v>
+        <v>33.94314564442312</v>
       </c>
       <c r="R7">
-        <v>305.488310799808</v>
+        <v>305.4883107998081</v>
       </c>
       <c r="S7">
-        <v>0.002079265376644839</v>
+        <v>0.001311776558333619</v>
       </c>
       <c r="T7">
-        <v>0.002079265376644839</v>
+        <v>0.00131177655833362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N8">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q8">
-        <v>185.9089458706231</v>
+        <v>267.3211662129831</v>
       </c>
       <c r="R8">
-        <v>1673.180512835608</v>
+        <v>2405.890495916848</v>
       </c>
       <c r="S8">
-        <v>0.01138827963697694</v>
+        <v>0.01033097058999925</v>
       </c>
       <c r="T8">
-        <v>0.01138827963697694</v>
+        <v>0.01033097058999925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N9">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q9">
-        <v>1578.686258559906</v>
+        <v>1225.820437568201</v>
       </c>
       <c r="R9">
-        <v>14208.17632703915</v>
+        <v>11032.38393811381</v>
       </c>
       <c r="S9">
-        <v>0.09670605407038677</v>
+        <v>0.04737340880462627</v>
       </c>
       <c r="T9">
-        <v>0.09670605407038675</v>
+        <v>0.04737340880462627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H10">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N10">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O10">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P10">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q10">
-        <v>1866.727398067544</v>
+        <v>4003.904347547973</v>
       </c>
       <c r="R10">
-        <v>16800.54658260789</v>
+        <v>36035.13912793175</v>
       </c>
       <c r="S10">
-        <v>0.1143506758948216</v>
+        <v>0.1547360377244954</v>
       </c>
       <c r="T10">
-        <v>0.1143506758948215</v>
+        <v>0.1547360377244953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H11">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N11">
         <v>2.685736</v>
       </c>
       <c r="O11">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P11">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q11">
-        <v>12.22619034766311</v>
+        <v>14.05432906474756</v>
       </c>
       <c r="R11">
-        <v>110.035713128968</v>
+        <v>126.488961582728</v>
       </c>
       <c r="S11">
-        <v>0.0007489433815142589</v>
+        <v>0.0005431476388008775</v>
       </c>
       <c r="T11">
-        <v>0.0007489433815142586</v>
+        <v>0.0005431476388008775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H12">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N12">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q12">
-        <v>66.9636863759881</v>
+        <v>110.6856646489575</v>
       </c>
       <c r="R12">
-        <v>602.6731773838929</v>
+        <v>996.170981840618</v>
       </c>
       <c r="S12">
-        <v>0.004102014469509613</v>
+        <v>0.00427758999566778</v>
       </c>
       <c r="T12">
-        <v>0.004102014469509611</v>
+        <v>0.004277589995667779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H13">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N13">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q13">
-        <v>568.6367108867157</v>
+        <v>507.5570774833864</v>
       </c>
       <c r="R13">
-        <v>5117.730397980441</v>
+        <v>4568.013697350477</v>
       </c>
       <c r="S13">
-        <v>0.03483314826568557</v>
+        <v>0.0196151966359788</v>
       </c>
       <c r="T13">
-        <v>0.03483314826568556</v>
+        <v>0.0196151966359788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H14">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I14">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J14">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N14">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O14">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P14">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q14">
-        <v>3652.517465026095</v>
+        <v>6099.722307162209</v>
       </c>
       <c r="R14">
-        <v>32872.65718523485</v>
+        <v>54897.50076445988</v>
       </c>
       <c r="S14">
-        <v>0.2237433496051692</v>
+        <v>0.2357316207136711</v>
       </c>
       <c r="T14">
-        <v>0.2237433496051691</v>
+        <v>0.235731620713671</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H15">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I15">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J15">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N15">
         <v>2.685736</v>
       </c>
       <c r="O15">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P15">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q15">
-        <v>23.92227907609956</v>
+        <v>21.41097715307289</v>
       </c>
       <c r="R15">
-        <v>215.300511684896</v>
+        <v>192.698794377656</v>
       </c>
       <c r="S15">
-        <v>0.001465414170343448</v>
+        <v>0.0008274547743642119</v>
       </c>
       <c r="T15">
-        <v>0.001465414170343447</v>
+        <v>0.0008274547743642119</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H16">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I16">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J16">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N16">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q16">
-        <v>131.0239696829996</v>
+        <v>168.6233633817429</v>
       </c>
       <c r="R16">
-        <v>1179.215727146996</v>
+        <v>1517.610270435686</v>
       </c>
       <c r="S16">
-        <v>0.008026174312962805</v>
+        <v>0.006516666946214062</v>
       </c>
       <c r="T16">
-        <v>0.008026174312962802</v>
+        <v>0.006516666946214061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H17">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I17">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J17">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N17">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q17">
-        <v>1112.618542974625</v>
+        <v>773.234562803545</v>
       </c>
       <c r="R17">
-        <v>10013.56688677162</v>
+        <v>6959.111065231905</v>
       </c>
       <c r="S17">
-        <v>0.06815600528173982</v>
+        <v>0.02988264506196959</v>
       </c>
       <c r="T17">
-        <v>0.0681560052817398</v>
+        <v>0.02988264506196959</v>
       </c>
     </row>
   </sheetData>
